--- a/10250_0270.xlsx
+++ b/10250_0270.xlsx
@@ -6742,506 +6742,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId265"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="266" name="Image 266" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId266"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="267" name="Image 267" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId267"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="268" name="Image 268" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId268"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="269" name="Image 269" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId269"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>690</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="270" name="Image 270" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId270"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="271" name="Image 271" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId271"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="272" name="Image 272" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId272"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="273" name="Image 273" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId273"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="274" name="Image 274" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId274"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>703</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="275" name="Image 275" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId275"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>716</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="276" name="Image 276" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId276"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>716</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="277" name="Image 277" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId277"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>716</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="278" name="Image 278" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId278"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>716</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="279" name="Image 279" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId279"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>716</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="280" name="Image 280" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId280"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>729</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="281" name="Image 281" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId281"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>729</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="282" name="Image 282" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId282"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>729</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="283" name="Image 283" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId283"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>729</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="284" name="Image 284" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId284"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>729</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="285" name="Image 285" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId285"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7544,7 +7044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8505,14 +8005,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>102.2716076_3.1187873_10250_0270_22</t>
+          <t>103.0162295_2.8721406_10250_0270_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.2716076</v>
+        <v>103.0162295</v>
       </c>
       <c r="C23" t="n">
-        <v>3.1187873</v>
+        <v>2.8721406</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -8521,41 +8021,41 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/102.2716076,3.1187873_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.0162295,2.8721406_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/102.2716076,3.1187873_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0162295,2.8721406_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/102.2716076,3.1187873_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0162295,2.8721406_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/102.2716076,3.1187873_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0162295,2.8721406_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cuts/102.2716076,3.1187873_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0162295,2.8721406_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>103.0162295_2.8721406_10250_0270_23</t>
+          <t>102.8838975_2.8731895_10250_0270_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.0162295</v>
+        <v>102.8838975</v>
       </c>
       <c r="C24" t="n">
-        <v>2.8721406</v>
+        <v>2.8731895</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -8564,41 +8064,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cuts/103.0162295,2.8721406_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.8838975,2.8731895_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>cuts/103.0162295,2.8721406_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8838975,2.8731895_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cuts/103.0162295,2.8721406_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8838975,2.8731895_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cuts/103.0162295,2.8721406_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8838975,2.8731895_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cuts/103.0162295,2.8721406_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8838975,2.8731895_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>102.8838975_2.8731895_10250_0270_24</t>
+          <t>102.9399764_2.8970039_10250_0270_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.8838975</v>
+        <v>102.9399764</v>
       </c>
       <c r="C25" t="n">
-        <v>2.8731895</v>
+        <v>2.8970039</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -8607,41 +8107,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/102.8838975,2.8731895_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.9399764,2.8970039_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/102.8838975,2.8731895_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9399764,2.8970039_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/102.8838975,2.8731895_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9399764,2.8970039_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/102.8838975,2.8731895_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9399764,2.8970039_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/102.8838975,2.8731895_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9399764,2.8970039_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>102.9399764_2.8970039_10250_0270_25</t>
+          <t>102.8164153_2.6258756_10250_0270_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.9399764</v>
+        <v>102.8164153</v>
       </c>
       <c r="C26" t="n">
-        <v>2.8970039</v>
+        <v>2.6258756</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -8650,41 +8150,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/102.9399764,2.8970039_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.8164153,2.6258756_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/102.9399764,2.8970039_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8164153,2.6258756_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/102.9399764,2.8970039_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8164153,2.6258756_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/102.9399764,2.8970039_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8164153,2.6258756_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/102.9399764,2.8970039_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8164153,2.6258756_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>102.8164153_2.6258756_10250_0270_26</t>
+          <t>103.0067339_2.5111446_10250_0270_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.8164153</v>
+        <v>103.0067339</v>
       </c>
       <c r="C27" t="n">
-        <v>2.6258756</v>
+        <v>2.5111446</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -8693,41 +8193,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/102.8164153,2.6258756_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/103.0067339,2.5111446_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/102.8164153,2.6258756_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0067339,2.5111446_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/102.8164153,2.6258756_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0067339,2.5111446_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/102.8164153,2.6258756_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0067339,2.5111446_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/102.8164153,2.6258756_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0067339,2.5111446_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>103.0067339_2.5111446_10250_0270_27</t>
+          <t>102.7911395_2.2805486_10250_0270_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.0067339</v>
+        <v>102.7911395</v>
       </c>
       <c r="C28" t="n">
-        <v>2.5111446</v>
+        <v>2.2805486</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -8736,41 +8236,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/103.0067339,2.5111446_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.7911395,2.2805486_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/103.0067339,2.5111446_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7911395,2.2805486_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/103.0067339,2.5111446_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7911395,2.2805486_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/103.0067339,2.5111446_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7911395,2.2805486_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/103.0067339,2.5111446_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7911395,2.2805486_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>102.7911395_2.2805486_10250_0270_28</t>
+          <t>102.9419287_2.3001698_10250_0270_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.7911395</v>
+        <v>102.9419287</v>
       </c>
       <c r="C29" t="n">
-        <v>2.2805486</v>
+        <v>2.3001698</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -8779,41 +8279,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/102.7911395,2.2805486_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.9419287,2.3001698_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/102.7911395,2.2805486_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9419287,2.3001698_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/102.7911395,2.2805486_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9419287,2.3001698_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/102.7911395,2.2805486_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9419287,2.3001698_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/102.7911395,2.2805486_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9419287,2.3001698_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>102.9419287_2.3001698_10250_0270_29</t>
+          <t>102.7255856_2.2605625_10250_0270_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.9419287</v>
+        <v>102.7255856</v>
       </c>
       <c r="C30" t="n">
-        <v>2.3001698</v>
+        <v>2.2605625</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -8822,41 +8322,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/102.9419287,2.3001698_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.7255856,2.2605625_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/102.9419287,2.3001698_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7255856,2.2605625_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/102.9419287,2.3001698_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7255856,2.2605625_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/102.9419287,2.3001698_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7255856,2.2605625_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/102.9419287,2.3001698_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7255856,2.2605625_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>102.7255856_2.2605625_10250_0270_30</t>
+          <t>102.7334492_2.3873943_10250_0270_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.7255856</v>
+        <v>102.7334492</v>
       </c>
       <c r="C31" t="n">
-        <v>2.2605625</v>
+        <v>2.3873943</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -8865,41 +8365,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/102.7255856,2.2605625_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.7334492,2.3873943_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/102.7255856,2.2605625_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7334492,2.3873943_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/102.7255856,2.2605625_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7334492,2.3873943_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/102.7255856,2.2605625_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7334492,2.3873943_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/102.7255856,2.2605625_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.7334492,2.3873943_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>102.7334492_2.3873943_10250_0270_31</t>
+          <t>102.6619473_2.8319059_10250_0270_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.7334492</v>
+        <v>102.6619473</v>
       </c>
       <c r="C32" t="n">
-        <v>2.3873943</v>
+        <v>2.8319059</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -8908,41 +8408,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/102.7334492,2.3873943_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.6619473,2.8319059_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/102.7334492,2.3873943_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6619473,2.8319059_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/102.7334492,2.3873943_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6619473,2.8319059_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/102.7334492,2.3873943_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6619473,2.8319059_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/102.7334492,2.3873943_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6619473,2.8319059_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>102.6619473_2.8319059_10250_0270_32</t>
+          <t>102.6728024_2.8917378_10250_0270_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.6619473</v>
+        <v>102.6728024</v>
       </c>
       <c r="C33" t="n">
-        <v>2.8319059</v>
+        <v>2.8917378</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -8951,41 +8451,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/102.6619473,2.8319059_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.6728024,2.8917378_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/102.6619473,2.8319059_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6728024,2.8917378_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/102.6619473,2.8319059_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6728024,2.8917378_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/102.6619473,2.8319059_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6728024,2.8917378_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/102.6619473,2.8319059_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6728024,2.8917378_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>102.6728024_2.8917378_10250_0270_33</t>
+          <t>102.6108955_2.9450783_10250_0270_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.6728024</v>
+        <v>102.6108955</v>
       </c>
       <c r="C34" t="n">
-        <v>2.8917378</v>
+        <v>2.9450783</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -8994,41 +8494,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/102.6728024,2.8917378_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.6108955,2.9450783_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/102.6728024,2.8917378_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6108955,2.9450783_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/102.6728024,2.8917378_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6108955,2.9450783_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/102.6728024,2.8917378_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6108955,2.9450783_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/102.6728024,2.8917378_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6108955,2.9450783_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>102.6108955_2.9450783_10250_0270_34</t>
+          <t>102.6062167_2.8764121_10250_0270_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.6108955</v>
+        <v>102.6062167</v>
       </c>
       <c r="C35" t="n">
-        <v>2.9450783</v>
+        <v>2.8764121</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -9037,41 +8537,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/102.6108955,2.9450783_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.6062167,2.8764121_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/102.6108955,2.9450783_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6062167,2.8764121_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/102.6108955,2.9450783_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6062167,2.8764121_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/102.6108955,2.9450783_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6062167,2.8764121_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/102.6108955,2.9450783_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6062167,2.8764121_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>102.6062167_2.8764121_10250_0270_35</t>
+          <t>102.8099964_2.9703773_10250_0270_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.6062167</v>
+        <v>102.8099964</v>
       </c>
       <c r="C36" t="n">
-        <v>2.8764121</v>
+        <v>2.9703773</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -9080,41 +8580,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/102.6062167,2.8764121_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.8099964,2.9703773_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/102.6062167,2.8764121_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.8099964,2.9703773_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/102.6062167,2.8764121_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.8099964,2.9703773_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/102.6062167,2.8764121_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.8099964,2.9703773_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/102.6062167,2.8764121_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.8099964,2.9703773_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>102.8099964_2.9703773_10250_0270_36</t>
+          <t>102.6401070_3.0019087_10250_0270_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.8099964</v>
+        <v>102.640107</v>
       </c>
       <c r="C37" t="n">
-        <v>2.9703773</v>
+        <v>3.0019087</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -9123,41 +8623,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/102.8099964,2.9703773_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.6401070,3.0019087_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/102.8099964,2.9703773_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6401070,3.0019087_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/102.8099964,2.9703773_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6401070,3.0019087_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/102.8099964,2.9703773_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6401070,3.0019087_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/102.8099964,2.9703773_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6401070,3.0019087_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>102.5040891_3.0614167_10250_0270_37</t>
+          <t>102.5755107_2.8637477_10250_0270_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.5040891</v>
+        <v>102.5755107</v>
       </c>
       <c r="C38" t="n">
-        <v>3.0614167</v>
+        <v>2.8637477</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -9166,41 +8666,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/102.5040891,3.0614167_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.5755107,2.8637477_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/102.5040891,3.0614167_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5755107,2.8637477_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/102.5040891,3.0614167_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5755107,2.8637477_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/102.5040891,3.0614167_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5755107,2.8637477_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/102.5040891,3.0614167_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5755107,2.8637477_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>102.6401070_3.0019087_10250_0270_38</t>
+          <t>102.4775652_2.3349165_10250_0270_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.640107</v>
+        <v>102.4775652</v>
       </c>
       <c r="C39" t="n">
-        <v>3.0019087</v>
+        <v>2.3349165</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -9209,41 +8709,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/102.6401070,3.0019087_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.4775652,2.3349165_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/102.6401070,3.0019087_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4775652,2.3349165_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/102.6401070,3.0019087_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4775652,2.3349165_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/102.6401070,3.0019087_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4775652,2.3349165_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/102.6401070,3.0019087_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4775652,2.3349165_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>102.5755107_2.8637477_10250_0270_39</t>
+          <t>102.6506275_2.1542685_10250_0270_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.5755107</v>
+        <v>102.6506275</v>
       </c>
       <c r="C40" t="n">
-        <v>2.8637477</v>
+        <v>2.1542685</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -9252,41 +8752,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/102.5755107,2.8637477_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.6506275,2.1542685_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/102.5755107,2.8637477_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.6506275,2.1542685_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/102.5755107,2.8637477_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.6506275,2.1542685_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/102.5755107,2.8637477_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.6506275,2.1542685_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/102.5755107,2.8637477_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.6506275,2.1542685_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>102.4775652_2.3349165_10250_0270_40</t>
+          <t>102.5626228_2.1172484_10250_0270_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.4775652</v>
+        <v>102.5626228</v>
       </c>
       <c r="C41" t="n">
-        <v>2.3349165</v>
+        <v>2.1172484</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -9295,41 +8795,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/102.4775652,2.3349165_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.5626228,2.1172484_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/102.4775652,2.3349165_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5626228,2.1172484_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/102.4775652,2.3349165_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5626228,2.1172484_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/102.4775652,2.3349165_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5626228,2.1172484_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/102.4775652,2.3349165_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5626228,2.1172484_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>102.6506275_2.1542685_10250_0270_41</t>
+          <t>102.5140926_2.1497500_10250_0270_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102.6506275</v>
+        <v>102.5140926</v>
       </c>
       <c r="C42" t="n">
-        <v>2.1542685</v>
+        <v>2.14975</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -9338,41 +8838,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/102.6506275,2.1542685_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.5140926,2.1497500_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/102.6506275,2.1542685_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.5140926,2.1497500_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/102.6506275,2.1542685_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.5140926,2.1497500_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/102.6506275,2.1542685_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.5140926,2.1497500_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/102.6506275,2.1542685_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.5140926,2.1497500_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>102.5626228_2.1172484_10250_0270_42</t>
+          <t>102.3789937_2.2504107_10250_0270_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.5626228</v>
+        <v>102.3789937</v>
       </c>
       <c r="C43" t="n">
-        <v>2.1172484</v>
+        <v>2.2504107</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -9381,41 +8881,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/102.5626228,2.1172484_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.3789937,2.2504107_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/102.5626228,2.1172484_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.3789937,2.2504107_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/102.5626228,2.1172484_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.3789937,2.2504107_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/102.5626228,2.1172484_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.3789937,2.2504107_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/102.5626228,2.1172484_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.3789937,2.2504107_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>102.5140926_2.1497500_10250_0270_43</t>
+          <t>102.3584056_2.8769085_10250_0270_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.5140926</v>
+        <v>102.3584056</v>
       </c>
       <c r="C44" t="n">
-        <v>2.14975</v>
+        <v>2.8769085</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -9424,41 +8924,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/102.5140926,2.1497500_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.3584056,2.8769085_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/102.5140926,2.1497500_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.3584056,2.8769085_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/102.5140926,2.1497500_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.3584056,2.8769085_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/102.5140926,2.1497500_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.3584056,2.8769085_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/102.5140926,2.1497500_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.3584056,2.8769085_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>102.3789937_2.2504107_10250_0270_44</t>
+          <t>102.2370846_2.8860550_10250_0270_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102.3789937</v>
+        <v>102.2370846</v>
       </c>
       <c r="C45" t="n">
-        <v>2.2504107</v>
+        <v>2.886055</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -9467,41 +8967,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/102.3789937,2.2504107_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.2370846,2.8860550_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/102.3789937,2.2504107_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2370846,2.8860550_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/102.3789937,2.2504107_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2370846,2.8860550_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/102.3789937,2.2504107_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2370846,2.8860550_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/102.3789937,2.2504107_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2370846,2.8860550_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>102.3584056_2.8769085_10250_0270_45</t>
+          <t>102.1718253_2.9238725_10250_0270_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.3584056</v>
+        <v>102.1718253</v>
       </c>
       <c r="C46" t="n">
-        <v>2.8769085</v>
+        <v>2.9238725</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -9510,41 +9010,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/102.3584056,2.8769085_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.1718253,2.9238725_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/102.3584056,2.8769085_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.1718253,2.9238725_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/102.3584056,2.8769085_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.1718253,2.9238725_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/102.3584056,2.8769085_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.1718253,2.9238725_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/102.3584056,2.8769085_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.1718253,2.9238725_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>102.2789335_3.0912300_10250_0270_46</t>
+          <t>102.2224926_2.4777184_10250_0270_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>102.2789335</v>
+        <v>102.2224926</v>
       </c>
       <c r="C47" t="n">
-        <v>3.09123</v>
+        <v>2.4777184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -9553,41 +9053,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/102.2789335,3.0912300_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.2224926,2.4777184_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/102.2789335,3.0912300_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2224926,2.4777184_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/102.2789335,3.0912300_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2224926,2.4777184_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/102.2789335,3.0912300_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2224926,2.4777184_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/102.2789335,3.0912300_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2224926,2.4777184_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>102.2370846_2.8860550_10250_0270_47</t>
+          <t>102.2695945_2.1705616_10250_0270_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>102.2370846</v>
+        <v>102.2695945</v>
       </c>
       <c r="C48" t="n">
-        <v>2.886055</v>
+        <v>2.1705616</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -9596,41 +9096,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/102.2370846,2.8860550_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.2695945,2.1705616_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/102.2370846,2.8860550_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.2695945,2.1705616_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/102.2370846,2.8860550_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.2695945,2.1705616_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/102.2370846,2.8860550_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.2695945,2.1705616_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/102.2370846,2.8860550_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.2695945,2.1705616_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>102.1718253_2.9238725_10250_0270_48</t>
+          <t>102.1833673_2.1797089_10250_0270_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>102.1718253</v>
+        <v>102.1833673</v>
       </c>
       <c r="C49" t="n">
-        <v>2.9238725</v>
+        <v>2.1797089</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -9639,41 +9139,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/102.1718253,2.9238725_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.1833673,2.1797089_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/102.1718253,2.9238725_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.1833673,2.1797089_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/102.1718253,2.9238725_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.1833673,2.1797089_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/102.1718253,2.9238725_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.1833673,2.1797089_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/102.1718253,2.9238725_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.1833673,2.1797089_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>102.2224926_2.4777184_10250_0270_49</t>
+          <t>102.0869552_2.7086800_10250_0270_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>102.2224926</v>
+        <v>102.0869552</v>
       </c>
       <c r="C50" t="n">
-        <v>2.4777184</v>
+        <v>2.70868</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -9682,41 +9182,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/102.2224926,2.4777184_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.0869552,2.7086800_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/102.2224926,2.4777184_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0869552,2.7086800_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/102.2224926,2.4777184_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0869552,2.7086800_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/102.2224926,2.4777184_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0869552,2.7086800_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/102.2224926,2.4777184_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0869552,2.7086800_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>102.2695945_2.1705616_10250_0270_50</t>
+          <t>102.0296212_2.9756592_10250_0270_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>102.2695945</v>
+        <v>102.0296212</v>
       </c>
       <c r="C51" t="n">
-        <v>2.1705616</v>
+        <v>2.9756592</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -9725,41 +9225,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/102.2695945,2.1705616_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.0296212,2.9756592_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/102.2695945,2.1705616_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0296212,2.9756592_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/102.2695945,2.1705616_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0296212,2.9756592_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/102.2695945,2.1705616_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0296212,2.9756592_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/102.2695945,2.1705616_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0296212,2.9756592_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>102.1833673_2.1797089_10250_0270_51</t>
+          <t>102.0381330_2.0968291_10250_0270_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>102.1833673</v>
+        <v>102.038133</v>
       </c>
       <c r="C52" t="n">
-        <v>2.1797089</v>
+        <v>2.0968291</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -9768,41 +9268,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/102.1833673,2.1797089_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.0381330,2.0968291_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/102.1833673,2.1797089_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0381330,2.0968291_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/102.1833673,2.1797089_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0381330,2.0968291_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/102.1833673,2.1797089_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0381330,2.0968291_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/102.1833673,2.1797089_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0381330,2.0968291_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>102.0869552_2.7086800_10250_0270_52</t>
+          <t>102.4868983_3.0562500_10250_0270_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>102.0869552</v>
+        <v>102.4868983</v>
       </c>
       <c r="C53" t="n">
-        <v>2.70868</v>
+        <v>3.05625</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -9811,41 +9311,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/102.0869552,2.7086800_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.4868983,3.0562500_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/102.0869552,2.7086800_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.4868983,3.0562500_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/102.0869552,2.7086800_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.4868983,3.0562500_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/102.0869552,2.7086800_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.4868983,3.0562500_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/102.0869552,2.7086800_10250_0270_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.4868983,3.0562500_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>102.0296212_2.9756592_10250_0270_53</t>
+          <t>102.7760476_2.6608854_10250_0270_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>102.0296212</v>
+        <v>102.7760476</v>
       </c>
       <c r="C54" t="n">
-        <v>2.9756592</v>
+        <v>2.6608854</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -9854,197 +9354,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/102.0296212,2.9756592_10250_0270_RGB-composite.jpeg</t>
+          <t>cuts/102.7760476,2.6608854_10250_0270_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/102.0296212,2.9756592_10250_0270_Rojo-8micras.jpeg</t>
+          <t>cuts/102.7760476,2.6608854_10250_0270_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/102.0296212,2.9756592_10250_0270_I3-5.8micras.jpeg</t>
+          <t>cuts/102.7760476,2.6608854_10250_0270_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/102.0296212,2.9756592_10250_0270_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.7760476,2.6608854_10250_0270_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
-        <is>
-          <t>cuts/102.0296212,2.9756592_10250_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>102.0381330_2.0968291_10250_0270_54</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>102.038133</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2.0968291</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>cuts/102.0381330,2.0968291_10250_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>cuts/102.0381330,2.0968291_10250_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>cuts/102.0381330,2.0968291_10250_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>cuts/102.0381330,2.0968291_10250_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>cuts/102.0381330,2.0968291_10250_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>102.6217566_3.0810773_10250_0270_55</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>102.6217566</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.0810773</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>cuts/102.6217566,3.0810773_10250_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>cuts/102.6217566,3.0810773_10250_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>cuts/102.6217566,3.0810773_10250_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>cuts/102.6217566,3.0810773_10250_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>cuts/102.6217566,3.0810773_10250_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>102.4868983_3.0562500_10250_0270_56</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>102.4868983</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3.05625</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>cuts/102.4868983,3.0562500_10250_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>cuts/102.4868983,3.0562500_10250_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>cuts/102.4868983,3.0562500_10250_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>cuts/102.4868983,3.0562500_10250_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>cuts/102.4868983,3.0562500_10250_0270_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>102.7760476_2.6608854_10250_0270_57</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>102.7760476</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2.6608854</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>cuts/102.7760476,2.6608854_10250_0270_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>cuts/102.7760476,2.6608854_10250_0270_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>cuts/102.7760476,2.6608854_10250_0270_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>cuts/102.7760476,2.6608854_10250_0270_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
         <is>
           <t>cuts/102.7760476,2.6608854_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
@@ -10061,7 +9389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R730"/>
+  <dimension ref="A1:R678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10263,252 +9591,224 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>102.2716076_3.1187873_10250_0270_22</t>
+          <t>103.0162295_2.8721406_10250_0270_22</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>103.0162295_2.8721406_10250_0270_23</t>
+          <t>102.8838975_2.8731895_10250_0270_23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>102.8838975_2.8731895_10250_0270_24</t>
+          <t>102.9399764_2.8970039_10250_0270_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>102.9399764_2.8970039_10250_0270_25</t>
+          <t>102.8164153_2.6258756_10250_0270_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>102.8164153_2.6258756_10250_0270_26</t>
+          <t>103.0067339_2.5111446_10250_0270_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>103.0067339_2.5111446_10250_0270_27</t>
+          <t>102.7911395_2.2805486_10250_0270_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>102.7911395_2.2805486_10250_0270_28</t>
+          <t>102.9419287_2.3001698_10250_0270_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>102.9419287_2.3001698_10250_0270_29</t>
+          <t>102.7255856_2.2605625_10250_0270_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>102.7255856_2.2605625_10250_0270_30</t>
+          <t>102.7334492_2.3873943_10250_0270_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>102.7334492_2.3873943_10250_0270_31</t>
+          <t>102.6619473_2.8319059_10250_0270_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>102.6619473_2.8319059_10250_0270_32</t>
+          <t>102.6728024_2.8917378_10250_0270_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>102.6728024_2.8917378_10250_0270_33</t>
+          <t>102.6108955_2.9450783_10250_0270_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>102.6108955_2.9450783_10250_0270_34</t>
+          <t>102.6062167_2.8764121_10250_0270_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>102.6062167_2.8764121_10250_0270_35</t>
+          <t>102.8099964_2.9703773_10250_0270_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>102.8099964_2.9703773_10250_0270_36</t>
+          <t>102.6401070_3.0019087_10250_0270_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>102.5040891_3.0614167_10250_0270_37</t>
+          <t>102.5755107_2.8637477_10250_0270_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>102.6401070_3.0019087_10250_0270_38</t>
+          <t>102.4775652_2.3349165_10250_0270_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>102.5755107_2.8637477_10250_0270_39</t>
+          <t>102.6506275_2.1542685_10250_0270_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>102.4775652_2.3349165_10250_0270_40</t>
+          <t>102.5626228_2.1172484_10250_0270_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>102.6506275_2.1542685_10250_0270_41</t>
+          <t>102.5140926_2.1497500_10250_0270_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>102.5626228_2.1172484_10250_0270_42</t>
+          <t>102.3789937_2.2504107_10250_0270_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>102.5140926_2.1497500_10250_0270_43</t>
+          <t>102.3584056_2.8769085_10250_0270_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>102.3789937_2.2504107_10250_0270_44</t>
+          <t>102.2370846_2.8860550_10250_0270_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>102.3584056_2.8769085_10250_0270_45</t>
+          <t>102.1718253_2.9238725_10250_0270_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>102.2789335_3.0912300_10250_0270_46</t>
+          <t>102.2224926_2.4777184_10250_0270_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>102.2370846_2.8860550_10250_0270_47</t>
+          <t>102.2695945_2.1705616_10250_0270_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>102.1718253_2.9238725_10250_0270_48</t>
+          <t>102.1833673_2.1797089_10250_0270_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>102.2224926_2.4777184_10250_0270_49</t>
+          <t>102.0869552_2.7086800_10250_0270_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>102.2695945_2.1705616_10250_0270_50</t>
+          <t>102.0296212_2.9756592_10250_0270_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>102.1833673_2.1797089_10250_0270_51</t>
+          <t>102.0381330_2.0968291_10250_0270_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>102.0869552_2.7086800_10250_0270_52</t>
+          <t>102.4868983_3.0562500_10250_0270_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>102.0296212_2.9756592_10250_0270_53</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>102.0381330_2.0968291_10250_0270_54</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>102.6217566_3.0810773_10250_0270_55</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>102.4868983_3.0562500_10250_0270_56</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>102.7760476_2.6608854_10250_0270_57</t>
+          <t>102.7760476_2.6608854_10250_0270_53</t>
         </is>
       </c>
     </row>

--- a/10250_0270.xlsx
+++ b/10250_0270.xlsx
@@ -7044,7 +7044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7098,6 +7098,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7141,6 +7221,54 @@
           <t>cuts/102.6568729,2.3029066_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7184,6 +7312,54 @@
           <t>cuts/102.0841722,3.0398457_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7227,6 +7403,54 @@
           <t>cuts/102.0832148,2.9978064_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7270,6 +7494,54 @@
           <t>cuts/102.0388892,2.7411627_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7313,6 +7585,54 @@
           <t>cuts/102.1304220,2.4290273_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7356,6 +7676,54 @@
           <t>cuts/102.0757232,2.3823428_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7399,6 +7767,54 @@
           <t>cuts/101.9672113,2.1989667_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7442,6 +7858,54 @@
           <t>cuts/102.7483869,2.8360581_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7485,6 +7949,54 @@
           <t>cuts/102.7559663,2.3773898_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7528,6 +8040,54 @@
           <t>cuts/102.7416072,2.3088927_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7571,6 +8131,54 @@
           <t>cuts/102.2719742,2.8207287_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7614,6 +8222,54 @@
           <t>cuts/102.2559255,2.1358922_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7657,6 +8313,54 @@
           <t>cuts/102.5345777,2.7457266_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7700,6 +8404,54 @@
           <t>cuts/101.9924036,2.3719843_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7743,6 +8495,54 @@
           <t>cuts/102.1823398,2.1759308_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7786,6 +8586,54 @@
           <t>cuts/102.8540590,2.4111986_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7829,6 +8677,54 @@
           <t>cuts/103.0051831,2.3924786_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7872,6 +8768,54 @@
           <t>cuts/102.8400597,2.4575359_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7915,6 +8859,54 @@
           <t>cuts/102.8507429,2.4811995_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7958,6 +8950,54 @@
           <t>cuts/102.5744952,2.6314144_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8001,6 +9041,54 @@
           <t>cuts/102.8094931,2.3052107_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8044,6 +9132,54 @@
           <t>cuts/103.0162295,2.8721406_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8087,6 +9223,54 @@
           <t>cuts/102.8838975,2.8731895_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8130,6 +9314,54 @@
           <t>cuts/102.9399764,2.8970039_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8173,6 +9405,54 @@
           <t>cuts/102.8164153,2.6258756_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8216,6 +9496,54 @@
           <t>cuts/103.0067339,2.5111446_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8259,6 +9587,54 @@
           <t>cuts/102.7911395,2.2805486_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8302,6 +9678,54 @@
           <t>cuts/102.9419287,2.3001698_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8345,6 +9769,54 @@
           <t>cuts/102.7255856,2.2605625_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8388,6 +9860,54 @@
           <t>cuts/102.7334492,2.3873943_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8431,6 +9951,54 @@
           <t>cuts/102.6619473,2.8319059_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8474,6 +10042,54 @@
           <t>cuts/102.6728024,2.8917378_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8517,6 +10133,54 @@
           <t>cuts/102.6108955,2.9450783_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8560,6 +10224,54 @@
           <t>cuts/102.6062167,2.8764121_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X35" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8603,6 +10315,54 @@
           <t>cuts/102.8099964,2.9703773_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8646,6 +10406,54 @@
           <t>cuts/102.6401070,3.0019087_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M37" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X37" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8689,6 +10497,54 @@
           <t>cuts/102.5755107,2.8637477_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T38" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8732,6 +10588,54 @@
           <t>cuts/102.4775652,2.3349165_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8775,6 +10679,54 @@
           <t>cuts/102.6506275,2.1542685_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8818,6 +10770,54 @@
           <t>cuts/102.5626228,2.1172484_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K41" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8861,6 +10861,54 @@
           <t>cuts/102.5140926,2.1497500_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K42" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8904,6 +10952,54 @@
           <t>cuts/102.3789937,2.2504107_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K43" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T43" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8947,6 +11043,54 @@
           <t>cuts/102.3584056,2.8769085_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K44" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8990,6 +11134,54 @@
           <t>cuts/102.2370846,2.8860550_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M45" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T45" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9033,6 +11225,54 @@
           <t>cuts/102.1718253,2.9238725_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K46" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T46" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X46" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9076,6 +11316,54 @@
           <t>cuts/102.2224926,2.4777184_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M47" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9119,6 +11407,54 @@
           <t>cuts/102.2695945,2.1705616_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X48" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9162,6 +11498,54 @@
           <t>cuts/102.1833673,2.1797089_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M49" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T49" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9205,6 +11589,54 @@
           <t>cuts/102.0869552,2.7086800_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K50" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M50" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9248,6 +11680,54 @@
           <t>cuts/102.0296212,2.9756592_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T51" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X51" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9291,6 +11771,54 @@
           <t>cuts/102.0381330,2.0968291_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T52" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9334,6 +11862,54 @@
           <t>cuts/102.4868983,3.0562500_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M53" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T53" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.289714</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9376,6 +11952,54 @@
         <is>
           <t>cuts/102.7760476,2.6608854_10250_0270_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J54" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12.2761</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6.42261</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.240526</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.81985</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.339216</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>34.934</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6.20751</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.480469</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5.13417</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.453776</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.32737</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.642578</v>
+      </c>
+      <c r="X54" t="n">
+        <v>5.49195</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.289714</v>
       </c>
     </row>
   </sheetData>
